--- a/Data/Input/novo_relatório_17-05-2021.xlsx
+++ b/Data/Input/novo_relatório_17-05-2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.morais\Documents\UiPath\prj_t2c_EmailCandidatos_Outlook\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB35A1-5A8D-4AD4-9598-852F3A3713A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF0B040-D9A3-40BB-A4B5-A943DAD16E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -887,9 +887,13 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -902,7 +906,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
@@ -910,6 +914,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -923,7 +928,8 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1265,20 +1271,20 @@
   <x:dimension ref="A1:J9"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <x:selection activeCell="J2" sqref="J2 J2:J2"/>
+      <x:selection activeCell="J1" sqref="J1 J1:J1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.875" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="19.75" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="15.25" style="5" customWidth="1"/>
-    <x:col min="4" max="4" width="20.75" style="6" customWidth="1"/>
-    <x:col min="5" max="5" width="24.25" style="5" customWidth="1"/>
-    <x:col min="6" max="6" width="26.375" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="28.75" style="5" customWidth="1"/>
-    <x:col min="8" max="8" width="16.75" style="5" customWidth="1"/>
-    <x:col min="9" max="9" width="55.75" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="21.875" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="19.75" style="6" customWidth="1"/>
+    <x:col min="3" max="3" width="15.25" style="6" customWidth="1"/>
+    <x:col min="4" max="4" width="20.75" style="7" customWidth="1"/>
+    <x:col min="5" max="5" width="24.25" style="6" customWidth="1"/>
+    <x:col min="6" max="6" width="26.375" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="28.75" style="6" customWidth="1"/>
+    <x:col min="8" max="8" width="16.75" style="6" customWidth="1"/>
+    <x:col min="9" max="9" width="55.75" style="6" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,84 +1315,86 @@
       <x:c r="I1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="5" t="s">
+      <x:c r="J1" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A2" s="5" t="s">
+      <x:c r="A2" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2" s="6" t="n">
+      <x:c r="B2" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="7" t="n">
         <x:v>44244.9395846296</x:v>
       </x:c>
-      <x:c r="E2" s="5" t="s">
+      <x:c r="E2" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F2" s="7" t="s">
+      <x:c r="F2" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H2" s="5" t="s">
+      <x:c r="H2" s="6" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="I2" s="5" t="s">
+      <x:c r="I2" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="J2" s="5" t="s">
+      <x:c r="J2" s="6" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A3" s="5" t="s">
+      <x:c r="A3" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="6" t="n">
+      <x:c r="B3" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="7" t="n">
         <x:v>44294.6929139815</x:v>
       </x:c>
-      <x:c r="E3" s="5" t="s">
+      <x:c r="E3" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F3" s="7" t="s">
+      <x:c r="F3" s="8" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H3" s="5" t="s">
+      <x:c r="H3" s="6" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="I3" s="5" t="s">
+      <x:c r="I3" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A4" s="5" t="s"/>
-      <x:c r="B4" s="5" t="s"/>
-      <x:c r="C4" s="5" t="s"/>
-      <x:c r="D4" s="5" t="s"/>
-      <x:c r="E4" s="5" t="s"/>
-      <x:c r="F4" s="5" t="s"/>
-      <x:c r="G4" s="5" t="s"/>
-      <x:c r="H4" s="5" t="s"/>
-      <x:c r="I4" s="5" t="s"/>
+      <x:c r="A4" s="6" t="s"/>
+      <x:c r="B4" s="6" t="s"/>
+      <x:c r="C4" s="6" t="s"/>
+      <x:c r="D4" s="6" t="s"/>
+      <x:c r="E4" s="6" t="s"/>
+      <x:c r="F4" s="6" t="s"/>
+      <x:c r="G4" s="6" t="s"/>
+      <x:c r="H4" s="6" t="s"/>
+      <x:c r="I4" s="6" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="D6" s="5" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <x:c r="D6" s="6" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="D9" s="6" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="F2" r:id="rId6"/>
-    <x:hyperlink ref="F3" r:id="rId7"/>
+    <x:hyperlink ref="F2" r:id="rId8"/>
+    <x:hyperlink ref="F3" r:id="rId9"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1403,21 +1411,21 @@
   </x:sheetPr>
   <x:dimension ref="A1:I71"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="F31" sqref="F31 F31:F31"/>
+    <x:sheetView topLeftCell="A16" workbookViewId="0">
+      <x:selection activeCell="F4" sqref="F4 F4:F4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.75" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="19.75" style="5" customWidth="1"/>
-    <x:col min="3" max="3" width="15.25" style="5" customWidth="1"/>
-    <x:col min="4" max="4" width="20.75" style="6" customWidth="1"/>
-    <x:col min="5" max="5" width="24.25" style="5" customWidth="1"/>
-    <x:col min="6" max="6" width="32.625" style="5" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="28.75" style="5" customWidth="1"/>
-    <x:col min="8" max="8" width="16.75" style="5" customWidth="1"/>
-    <x:col min="9" max="9" width="55.75" style="5" customWidth="1"/>
+    <x:col min="1" max="1" width="13.75" style="6" customWidth="1"/>
+    <x:col min="2" max="2" width="19.75" style="6" customWidth="1"/>
+    <x:col min="3" max="3" width="15.25" style="6" customWidth="1"/>
+    <x:col min="4" max="4" width="20.75" style="7" customWidth="1"/>
+    <x:col min="5" max="5" width="24.25" style="6" customWidth="1"/>
+    <x:col min="6" max="6" width="32.625" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="28.75" style="6" customWidth="1"/>
+    <x:col min="8" max="8" width="16.75" style="6" customWidth="1"/>
+    <x:col min="9" max="9" width="55.75" style="6" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1450,1824 +1458,1826 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A2" s="5" t="s">
+      <x:c r="A2" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2" s="6" t="n">
+      <x:c r="B2" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="7" t="n">
         <x:v>44244.9395846296</x:v>
       </x:c>
-      <x:c r="E2" s="5" t="s">
+      <x:c r="E2" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F2" s="5" t="s">
+      <x:c r="F2" s="6" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H2" s="5" t="s">
+      <x:c r="H2" s="6" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="I2" s="5" t="s">
+      <x:c r="I2" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A3" s="5" t="s">
+      <x:c r="A3" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="6" t="n">
+      <x:c r="B3" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="7" t="n">
         <x:v>44294.6929139815</x:v>
       </x:c>
-      <x:c r="E3" s="5" t="s">
+      <x:c r="E3" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F3" s="5" t="s">
+      <x:c r="F3" s="6" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H3" s="5" t="s">
+      <x:c r="H3" s="6" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="I3" s="5" t="s">
+      <x:c r="I3" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A4" s="5" t="s">
+      <x:c r="A4" s="6" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="6" t="n">
+      <x:c r="B4" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="7" t="n">
         <x:v>44287.6126060417</x:v>
       </x:c>
-      <x:c r="E4" s="5" t="s">
+      <x:c r="E4" s="6" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F4" s="5" t="s">
+      <x:c r="F4" s="6" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="H4" s="5" t="s">
+      <x:c r="H4" s="6" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I4" s="5" t="s">
+      <x:c r="I4" s="6" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A5" s="5" t="s">
+      <x:c r="A5" s="6" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B5" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="n">
+      <x:c r="B5" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D5" s="7" t="n">
         <x:v>44308.4325711227</x:v>
       </x:c>
-      <x:c r="E5" s="5" t="s">
+      <x:c r="E5" s="6" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F5" s="5" t="s">
+      <x:c r="F5" s="6" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H5" s="5" t="s">
+      <x:c r="H5" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="I5" s="5" t="s">
+      <x:c r="I5" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A6" s="5" t="s">
+      <x:c r="A6" s="6" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B6" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D6" s="6" t="n">
+      <x:c r="B6" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="7" t="n">
         <x:v>44288.5181190509</x:v>
       </x:c>
-      <x:c r="E6" s="5" t="s">
+      <x:c r="E6" s="6" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F6" s="5" t="s">
+      <x:c r="F6" s="6" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H6" s="5" t="s">
+      <x:c r="H6" s="6" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I6" s="5" t="s">
+      <x:c r="I6" s="6" t="s">
         <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A7" s="5" t="s">
+      <x:c r="A7" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B7" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D7" s="6" t="n">
+      <x:c r="B7" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D7" s="7" t="n">
         <x:v>44287.4884246296</x:v>
       </x:c>
-      <x:c r="E7" s="5" t="s">
+      <x:c r="E7" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="F7" s="5" t="s">
+      <x:c r="F7" s="6" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="H7" s="5" t="s">
+      <x:c r="H7" s="6" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="I7" s="5" t="s">
+      <x:c r="I7" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A8" s="5" t="s">
+      <x:c r="A8" s="6" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C8" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="n">
+      <x:c r="B8" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C8" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D8" s="7" t="n">
         <x:v>44287.666561331</x:v>
       </x:c>
-      <x:c r="E8" s="5" t="s">
+      <x:c r="E8" s="6" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="F8" s="5" t="s">
+      <x:c r="F8" s="6" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="H8" s="5" t="s">
+      <x:c r="H8" s="6" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="I8" s="5" t="s">
+      <x:c r="I8" s="6" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A9" s="5" t="s">
+      <x:c r="A9" s="6" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B9" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C9" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="n">
+      <x:c r="B9" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D9" s="7" t="n">
         <x:v>44288.0495116319</x:v>
       </x:c>
-      <x:c r="E9" s="5" t="s">
+      <x:c r="E9" s="6" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F9" s="5" t="s">
+      <x:c r="F9" s="6" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="H9" s="5" t="s">
+      <x:c r="H9" s="6" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="I9" s="5" t="s">
+      <x:c r="I9" s="6" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A10" s="5" t="s">
+      <x:c r="A10" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B10" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C10" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="n">
+      <x:c r="B10" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D10" s="7" t="n">
         <x:v>44287.8536204167</x:v>
       </x:c>
-      <x:c r="E10" s="5" t="s">
+      <x:c r="E10" s="6" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="F10" s="5" t="s">
+      <x:c r="F10" s="6" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="H10" s="5" t="s">
+      <x:c r="H10" s="6" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="I10" s="5" t="s">
+      <x:c r="I10" s="6" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A11" s="5" t="s">
+      <x:c r="A11" s="6" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B11" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D11" s="6" t="n">
+      <x:c r="B11" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D11" s="7" t="n">
         <x:v>44308.5503533333</x:v>
       </x:c>
-      <x:c r="E11" s="5" t="s">
+      <x:c r="E11" s="6" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="F11" s="5" t="s">
+      <x:c r="F11" s="6" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="H11" s="5" t="s">
+      <x:c r="H11" s="6" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="I11" s="5" t="s">
+      <x:c r="I11" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A12" s="5" t="s">
+      <x:c r="A12" s="6" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="B12" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C12" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D12" s="6" t="n">
+      <x:c r="B12" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D12" s="7" t="n">
         <x:v>44290.9636132523</x:v>
       </x:c>
-      <x:c r="E12" s="5" t="s">
+      <x:c r="E12" s="6" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="F12" s="5" t="s">
+      <x:c r="F12" s="6" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="H12" s="5" t="s">
+      <x:c r="H12" s="6" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="I12" s="5" t="s">
+      <x:c r="I12" s="6" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A13" s="5" t="s">
+      <x:c r="A13" s="6" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B13" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C13" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D13" s="6" t="n">
+      <x:c r="B13" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="7" t="n">
         <x:v>44308.964224375</x:v>
       </x:c>
-      <x:c r="E13" s="5" t="s">
+      <x:c r="E13" s="6" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F13" s="5" t="s">
+      <x:c r="F13" s="6" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="H13" s="5" t="s">
+      <x:c r="H13" s="6" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="I13" s="5" t="s">
+      <x:c r="I13" s="6" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A14" s="5" t="s">
+      <x:c r="A14" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B14" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C14" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D14" s="6" t="n">
+      <x:c r="B14" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C14" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D14" s="7" t="n">
         <x:v>44298.6464674421</x:v>
       </x:c>
-      <x:c r="E14" s="5" t="s">
+      <x:c r="E14" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="F14" s="5" t="s">
+      <x:c r="F14" s="6" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="H14" s="5" t="s">
+      <x:c r="H14" s="6" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="I14" s="5" t="s">
+      <x:c r="I14" s="6" t="s">
         <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A15" s="5" t="s">
+      <x:c r="A15" s="6" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B15" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D15" s="6" t="n">
+      <x:c r="B15" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C15" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D15" s="7" t="n">
         <x:v>44307.9676017361</x:v>
       </x:c>
-      <x:c r="E15" s="5" t="s">
+      <x:c r="E15" s="6" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F15" s="5" t="s">
+      <x:c r="F15" s="6" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="H15" s="5" t="s">
+      <x:c r="H15" s="6" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="I15" s="5" t="s">
+      <x:c r="I15" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A16" s="5" t="s">
+      <x:c r="A16" s="6" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="B16" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C16" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D16" s="6" t="n">
+      <x:c r="B16" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C16" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D16" s="7" t="n">
         <x:v>44313.6004546991</x:v>
       </x:c>
-      <x:c r="E16" s="5" t="s">
+      <x:c r="E16" s="6" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="F16" s="5" t="s">
+      <x:c r="F16" s="6" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="H16" s="5" t="s">
+      <x:c r="H16" s="6" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="I16" s="5" t="s">
+      <x:c r="I16" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A17" s="5" t="s">
+      <x:c r="A17" s="6" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="B17" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C17" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D17" s="6" t="n">
+      <x:c r="B17" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C17" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D17" s="7" t="n">
         <x:v>44312.8084244444</x:v>
       </x:c>
-      <x:c r="E17" s="5" t="s">
+      <x:c r="E17" s="6" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F17" s="5" t="s">
+      <x:c r="F17" s="6" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="H17" s="5" t="s">
+      <x:c r="H17" s="6" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="I17" s="5" t="s">
+      <x:c r="I17" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A18" s="5" t="s">
+      <x:c r="A18" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B18" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C18" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D18" s="6" t="n">
+      <x:c r="B18" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C18" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D18" s="7" t="n">
         <x:v>44286.5879099306</x:v>
       </x:c>
-      <x:c r="E18" s="5" t="s">
+      <x:c r="E18" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="F18" s="5" t="s">
+      <x:c r="F18" s="6" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="H18" s="5" t="s">
+      <x:c r="H18" s="6" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="I18" s="5" t="s">
+      <x:c r="I18" s="6" t="s">
         <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A19" s="5" t="s">
+      <x:c r="A19" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="B19" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C19" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D19" s="6" t="n">
+      <x:c r="B19" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C19" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D19" s="7" t="n">
         <x:v>44244.9404450463</x:v>
       </x:c>
-      <x:c r="E19" s="5" t="s">
+      <x:c r="E19" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="F19" s="5" t="s">
+      <x:c r="F19" s="6" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="H19" s="5" t="s">
+      <x:c r="H19" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="I19" s="5" t="s">
+      <x:c r="I19" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A20" s="5" t="s">
+      <x:c r="A20" s="6" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B20" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C20" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D20" s="6" t="n">
+      <x:c r="B20" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C20" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D20" s="7" t="n">
         <x:v>44307.8701411343</x:v>
       </x:c>
-      <x:c r="E20" s="5" t="s">
+      <x:c r="E20" s="6" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="F20" s="5" t="s">
+      <x:c r="F20" s="6" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="H20" s="5" t="s">
+      <x:c r="H20" s="6" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="I20" s="5" t="s">
+      <x:c r="I20" s="6" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A21" s="5" t="s">
+      <x:c r="A21" s="6" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B21" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C21" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D21" s="6" t="n">
+      <x:c r="B21" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C21" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D21" s="7" t="n">
         <x:v>44308.7781846181</x:v>
       </x:c>
-      <x:c r="E21" s="5" t="s">
+      <x:c r="E21" s="6" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="F21" s="5" t="s">
+      <x:c r="F21" s="6" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="H21" s="5" t="s">
+      <x:c r="H21" s="6" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="I21" s="5" t="s">
+      <x:c r="I21" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A22" s="5" t="s">
+      <x:c r="A22" s="6" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B22" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C22" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D22" s="6" t="n">
+      <x:c r="B22" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C22" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D22" s="7" t="n">
         <x:v>44304.8869549884</x:v>
       </x:c>
-      <x:c r="E22" s="5" t="s">
+      <x:c r="E22" s="6" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F22" s="5" t="s">
+      <x:c r="F22" s="6" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="H22" s="5" t="s">
+      <x:c r="H22" s="6" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="I22" s="5" t="s">
+      <x:c r="I22" s="6" t="s">
         <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A23" s="5" t="s">
+      <x:c r="A23" s="6" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B23" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C23" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D23" s="6" t="n">
+      <x:c r="B23" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C23" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D23" s="7" t="n">
         <x:v>44295.764917419</x:v>
       </x:c>
-      <x:c r="E23" s="5" t="s">
+      <x:c r="E23" s="6" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="F23" s="5" t="s">
+      <x:c r="F23" s="6" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="H23" s="5" t="s">
+      <x:c r="H23" s="6" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="I23" s="5" t="s">
+      <x:c r="I23" s="6" t="s">
         <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A24" s="5" t="s">
+      <x:c r="A24" s="6" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B24" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C24" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D24" s="6" t="n">
+      <x:c r="B24" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C24" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D24" s="7" t="n">
         <x:v>44295.8175165625</x:v>
       </x:c>
-      <x:c r="E24" s="5" t="s">
+      <x:c r="E24" s="6" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="F24" s="5" t="s">
+      <x:c r="F24" s="6" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="H24" s="5" t="s">
+      <x:c r="H24" s="6" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="I24" s="5" t="s">
+      <x:c r="I24" s="6" t="s">
         <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A25" s="5" t="s">
+      <x:c r="A25" s="6" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B25" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C25" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D25" s="6" t="n">
+      <x:c r="B25" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C25" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D25" s="7" t="n">
         <x:v>44287.7050548264</x:v>
       </x:c>
-      <x:c r="E25" s="5" t="s">
+      <x:c r="E25" s="6" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="F25" s="5" t="s">
+      <x:c r="F25" s="6" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="H25" s="5" t="s">
+      <x:c r="H25" s="6" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="I25" s="5" t="s">
+      <x:c r="I25" s="6" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A26" s="5" t="s">
+      <x:c r="A26" s="6" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B26" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C26" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D26" s="6" t="n">
+      <x:c r="B26" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C26" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D26" s="7" t="n">
         <x:v>44297.996115787</x:v>
       </x:c>
-      <x:c r="E26" s="5" t="s">
+      <x:c r="E26" s="6" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="F26" s="5" t="s">
+      <x:c r="F26" s="6" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="H26" s="5" t="s">
+      <x:c r="H26" s="6" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="I26" s="5" t="s">
+      <x:c r="I26" s="6" t="s">
         <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A27" s="5" t="s">
+      <x:c r="A27" s="6" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B27" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C27" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D27" s="6" t="n">
+      <x:c r="B27" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C27" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D27" s="7" t="n">
         <x:v>44301.7284390162</x:v>
       </x:c>
-      <x:c r="E27" s="5" t="s">
+      <x:c r="E27" s="6" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="F27" s="5" t="s">
+      <x:c r="F27" s="6" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="H27" s="5" t="s">
+      <x:c r="H27" s="6" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="I27" s="5" t="s">
+      <x:c r="I27" s="6" t="s">
         <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A28" s="5" t="s">
+      <x:c r="A28" s="6" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="B28" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C28" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D28" s="6" t="n">
+      <x:c r="B28" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C28" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D28" s="7" t="n">
         <x:v>44287.6622446296</x:v>
       </x:c>
-      <x:c r="E28" s="5" t="s">
+      <x:c r="E28" s="6" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="F28" s="5" t="s">
+      <x:c r="F28" s="6" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="H28" s="5" t="s">
+      <x:c r="H28" s="6" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="I28" s="5" t="s">
+      <x:c r="I28" s="6" t="s">
         <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A29" s="5" t="s">
+      <x:c r="A29" s="6" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="B29" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C29" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D29" s="6" t="n">
+      <x:c r="B29" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C29" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D29" s="7" t="n">
         <x:v>44307.9151604051</x:v>
       </x:c>
-      <x:c r="E29" s="5" t="s">
+      <x:c r="E29" s="6" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="F29" s="5" t="s">
+      <x:c r="F29" s="6" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="H29" s="5" t="s">
+      <x:c r="H29" s="6" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="I29" s="5" t="s">
+      <x:c r="I29" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A30" s="5" t="s">
+      <x:c r="A30" s="6" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B30" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C30" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D30" s="6" t="n">
+      <x:c r="B30" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C30" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D30" s="7" t="n">
         <x:v>44244.9399467824</x:v>
       </x:c>
-      <x:c r="E30" s="5" t="s">
+      <x:c r="E30" s="6" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="F30" s="5" t="s">
+      <x:c r="F30" s="6" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="H30" s="5" t="s">
+      <x:c r="H30" s="6" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="I30" s="5" t="s">
+      <x:c r="I30" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A31" s="5" t="s">
+      <x:c r="A31" s="6" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B31" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C31" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D31" s="6" t="n">
+      <x:c r="B31" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C31" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D31" s="7" t="n">
         <x:v>44300.086840868</x:v>
       </x:c>
-      <x:c r="E31" s="5" t="s">
+      <x:c r="E31" s="6" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="F31" s="5" t="s"/>
-      <x:c r="H31" s="5" t="s">
+      <x:c r="H31" s="6" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="I31" s="5" t="s">
+      <x:c r="I31" s="6" t="s">
         <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A32" s="5" t="s">
+      <x:c r="A32" s="6" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B32" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C32" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D32" s="6" t="n">
+      <x:c r="B32" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C32" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D32" s="7" t="n">
         <x:v>44302.890789919</x:v>
       </x:c>
-      <x:c r="E32" s="5" t="s">
+      <x:c r="E32" s="6" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="F32" s="5" t="s">
+      <x:c r="F32" s="6" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="H32" s="5" t="s">
+      <x:c r="H32" s="6" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="I32" s="5" t="s">
+      <x:c r="I32" s="6" t="s">
         <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A33" s="5" t="s">
+      <x:c r="A33" s="6" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B33" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C33" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D33" s="6" t="n">
+      <x:c r="B33" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C33" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D33" s="7" t="n">
         <x:v>44308.4784058102</x:v>
       </x:c>
-      <x:c r="E33" s="5" t="s">
+      <x:c r="E33" s="6" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="F33" s="5" t="s">
+      <x:c r="F33" s="6" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="H33" s="5" t="s">
+      <x:c r="H33" s="6" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="I33" s="5" t="s">
+      <x:c r="I33" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A34" s="5" t="s">
+      <x:c r="A34" s="6" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="B34" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C34" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D34" s="6" t="n">
+      <x:c r="B34" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C34" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D34" s="7" t="n">
         <x:v>44295.9118021296</x:v>
       </x:c>
-      <x:c r="E34" s="5" t="s">
+      <x:c r="E34" s="6" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="F34" s="5" t="s">
+      <x:c r="F34" s="6" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="H34" s="5" t="s">
+      <x:c r="H34" s="6" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="I34" s="5" t="s">
+      <x:c r="I34" s="6" t="s">
         <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A35" s="5" t="s">
+      <x:c r="A35" s="6" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B35" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C35" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D35" s="6" t="n">
+      <x:c r="B35" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C35" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D35" s="7" t="n">
         <x:v>44294.6900767477</x:v>
       </x:c>
-      <x:c r="E35" s="5" t="s">
+      <x:c r="E35" s="6" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="F35" s="5" t="s">
+      <x:c r="F35" s="6" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="H35" s="5" t="s">
+      <x:c r="H35" s="6" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="I35" s="5" t="s">
+      <x:c r="I35" s="6" t="s">
         <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A36" s="5" t="s">
+      <x:c r="A36" s="6" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B36" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C36" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D36" s="6" t="n">
+      <x:c r="B36" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C36" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D36" s="7" t="n">
         <x:v>44292.0333917361</x:v>
       </x:c>
-      <x:c r="E36" s="5" t="s">
+      <x:c r="E36" s="6" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="F36" s="5" t="s">
+      <x:c r="F36" s="6" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="H36" s="5" t="s">
+      <x:c r="H36" s="6" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="I36" s="5" t="s">
+      <x:c r="I36" s="6" t="s">
         <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A37" s="5" t="s">
+      <x:c r="A37" s="6" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="B37" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C37" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D37" s="6" t="n">
+      <x:c r="B37" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C37" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D37" s="7" t="n">
         <x:v>44308.9086035069</x:v>
       </x:c>
-      <x:c r="E37" s="5" t="s">
+      <x:c r="E37" s="6" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="F37" s="5" t="s">
+      <x:c r="F37" s="6" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="H37" s="5" t="s">
+      <x:c r="H37" s="6" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="I37" s="5" t="s">
+      <x:c r="I37" s="6" t="s">
         <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A38" s="5" t="s">
+      <x:c r="A38" s="6" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="B38" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C38" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D38" s="6" t="n">
+      <x:c r="B38" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C38" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D38" s="7" t="n">
         <x:v>44292.9422943866</x:v>
       </x:c>
-      <x:c r="E38" s="5" t="s">
+      <x:c r="E38" s="6" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="F38" s="5" t="s">
+      <x:c r="F38" s="6" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="H38" s="5" t="s">
+      <x:c r="H38" s="6" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="I38" s="5" t="s">
+      <x:c r="I38" s="6" t="s">
         <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A39" s="5" t="s">
+      <x:c r="A39" s="6" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="B39" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C39" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D39" s="6" t="n">
+      <x:c r="B39" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C39" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D39" s="7" t="n">
         <x:v>44313.4855955093</x:v>
       </x:c>
-      <x:c r="E39" s="5" t="s">
+      <x:c r="E39" s="6" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="F39" s="5" t="s">
+      <x:c r="F39" s="6" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="H39" s="5" t="s">
+      <x:c r="H39" s="6" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="I39" s="5" t="s">
+      <x:c r="I39" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A40" s="5" t="s">
+      <x:c r="A40" s="6" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="B40" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C40" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D40" s="6" t="n">
+      <x:c r="B40" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C40" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D40" s="7" t="n">
         <x:v>44289.9906996412</x:v>
       </x:c>
-      <x:c r="E40" s="5" t="s">
+      <x:c r="E40" s="6" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="F40" s="5" t="s">
+      <x:c r="F40" s="6" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="H40" s="5" t="s">
+      <x:c r="H40" s="6" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="I40" s="5" t="s">
+      <x:c r="I40" s="6" t="s">
         <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A41" s="5" t="s">
+      <x:c r="A41" s="6" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="B41" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C41" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D41" s="6" t="n">
+      <x:c r="B41" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C41" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D41" s="7" t="n">
         <x:v>44288.0423487037</x:v>
       </x:c>
-      <x:c r="E41" s="5" t="s">
+      <x:c r="E41" s="6" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="F41" s="5" t="s">
+      <x:c r="F41" s="6" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="H41" s="5" t="s">
+      <x:c r="H41" s="6" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="I41" s="5" t="s">
+      <x:c r="I41" s="6" t="s">
         <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A42" s="5" t="s">
+      <x:c r="A42" s="6" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="B42" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C42" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D42" s="6" t="n">
+      <x:c r="B42" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C42" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D42" s="7" t="n">
         <x:v>44289.0262696296</x:v>
       </x:c>
-      <x:c r="E42" s="5" t="s">
+      <x:c r="E42" s="6" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="F42" s="5" t="s">
+      <x:c r="F42" s="6" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="H42" s="5" t="s">
+      <x:c r="H42" s="6" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="I42" s="5" t="s">
+      <x:c r="I42" s="6" t="s">
         <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A43" s="5" t="s">
+      <x:c r="A43" s="6" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="B43" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C43" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D43" s="6" t="n">
+      <x:c r="B43" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C43" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D43" s="7" t="n">
         <x:v>44302.9240112847</x:v>
       </x:c>
-      <x:c r="E43" s="5" t="s">
+      <x:c r="E43" s="6" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="F43" s="5" t="s">
+      <x:c r="F43" s="6" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="H43" s="5" t="s">
+      <x:c r="H43" s="6" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="I43" s="5" t="s">
+      <x:c r="I43" s="6" t="s">
         <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A44" s="5" t="s">
+      <x:c r="A44" s="6" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="B44" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C44" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D44" s="6" t="n">
+      <x:c r="B44" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C44" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D44" s="7" t="n">
         <x:v>44250.8511160764</x:v>
       </x:c>
-      <x:c r="E44" s="5" t="s">
+      <x:c r="E44" s="6" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="F44" s="5" t="s">
+      <x:c r="F44" s="6" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="H44" s="5" t="s">
+      <x:c r="H44" s="6" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="I44" s="5" t="s">
+      <x:c r="I44" s="6" t="s">
         <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A45" s="5" t="s">
+      <x:c r="A45" s="6" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="B45" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C45" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D45" s="6" t="n">
+      <x:c r="B45" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C45" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D45" s="7" t="n">
         <x:v>44299.6269699769</x:v>
       </x:c>
-      <x:c r="E45" s="5" t="s">
+      <x:c r="E45" s="6" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="F45" s="5" t="s">
+      <x:c r="F45" s="6" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="H45" s="5" t="s">
+      <x:c r="H45" s="6" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="I45" s="5" t="s">
+      <x:c r="I45" s="6" t="s">
         <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A46" s="5" t="s">
+      <x:c r="A46" s="6" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="B46" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C46" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D46" s="6" t="n">
+      <x:c r="B46" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C46" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D46" s="7" t="n">
         <x:v>44296.0161202662</x:v>
       </x:c>
-      <x:c r="E46" s="5" t="s">
+      <x:c r="E46" s="6" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="F46" s="5" t="s">
+      <x:c r="F46" s="6" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="H46" s="5" t="s">
+      <x:c r="H46" s="6" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="I46" s="5" t="s">
+      <x:c r="I46" s="6" t="s">
         <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A47" s="5" t="s">
+      <x:c r="A47" s="6" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="B47" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C47" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D47" s="6" t="n">
+      <x:c r="B47" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C47" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D47" s="7" t="n">
         <x:v>44299.1451754514</x:v>
       </x:c>
-      <x:c r="E47" s="5" t="s">
+      <x:c r="E47" s="6" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="F47" s="5" t="s">
+      <x:c r="F47" s="6" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="H47" s="5" t="s">
+      <x:c r="H47" s="6" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="I47" s="5" t="s">
+      <x:c r="I47" s="6" t="s">
         <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A48" s="5" t="s">
+      <x:c r="A48" s="6" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="B48" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C48" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D48" s="6" t="n">
+      <x:c r="B48" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C48" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D48" s="7" t="n">
         <x:v>44303.5632977778</x:v>
       </x:c>
-      <x:c r="E48" s="5" t="s">
+      <x:c r="E48" s="6" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="F48" s="5" t="s">
+      <x:c r="F48" s="6" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="H48" s="5" t="s">
+      <x:c r="H48" s="6" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="I48" s="5" t="s">
+      <x:c r="I48" s="6" t="s">
         <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A49" s="5" t="s">
+      <x:c r="A49" s="6" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="B49" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C49" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D49" s="6" t="n">
+      <x:c r="B49" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C49" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D49" s="7" t="n">
         <x:v>44298.1273540394</x:v>
       </x:c>
-      <x:c r="E49" s="5" t="s">
+      <x:c r="E49" s="6" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="F49" s="5" t="s">
+      <x:c r="F49" s="6" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="H49" s="5" t="s">
+      <x:c r="H49" s="6" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="I49" s="5" t="s">
+      <x:c r="I49" s="6" t="s">
         <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A50" s="5" t="s">
+      <x:c r="A50" s="6" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="B50" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C50" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D50" s="6" t="n">
+      <x:c r="B50" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C50" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D50" s="7" t="n">
         <x:v>44289.1574669213</x:v>
       </x:c>
-      <x:c r="E50" s="5" t="s">
+      <x:c r="E50" s="6" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="F50" s="5" t="s">
+      <x:c r="F50" s="6" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="H50" s="5" t="s">
+      <x:c r="H50" s="6" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="I50" s="5" t="s">
+      <x:c r="I50" s="6" t="s">
         <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A51" s="5" t="s">
+      <x:c r="A51" s="6" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="B51" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C51" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D51" s="6" t="n">
+      <x:c r="B51" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C51" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D51" s="7" t="n">
         <x:v>44287.6617443982</x:v>
       </x:c>
-      <x:c r="E51" s="5" t="s">
+      <x:c r="E51" s="6" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="F51" s="5" t="s">
+      <x:c r="F51" s="6" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="H51" s="5" t="s">
+      <x:c r="H51" s="6" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="I51" s="5" t="s">
+      <x:c r="I51" s="6" t="s">
         <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A52" s="5" t="s">
+      <x:c r="A52" s="6" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="B52" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C52" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D52" s="6" t="n">
+      <x:c r="B52" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C52" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D52" s="7" t="n">
         <x:v>44246.7919343634</x:v>
       </x:c>
-      <x:c r="E52" s="5" t="s">
+      <x:c r="E52" s="6" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="F52" s="5" t="s">
+      <x:c r="F52" s="6" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="H52" s="5" t="s">
+      <x:c r="H52" s="6" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="I52" s="5" t="s">
+      <x:c r="I52" s="6" t="s">
         <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A53" s="5" t="s">
+      <x:c r="A53" s="6" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="B53" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C53" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D53" s="6" t="n">
+      <x:c r="B53" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C53" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D53" s="7" t="n">
         <x:v>44292.9690288542</x:v>
       </x:c>
-      <x:c r="E53" s="5" t="s">
+      <x:c r="E53" s="6" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="F53" s="5" t="s">
+      <x:c r="F53" s="6" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="H53" s="5" t="s">
+      <x:c r="H53" s="6" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="I53" s="5" t="s">
+      <x:c r="I53" s="6" t="s">
         <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A54" s="5" t="s">
+      <x:c r="A54" s="6" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="B54" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C54" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D54" s="6" t="n">
+      <x:c r="B54" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C54" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D54" s="7" t="n">
         <x:v>44295.0251091667</x:v>
       </x:c>
-      <x:c r="E54" s="5" t="s">
+      <x:c r="E54" s="6" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="F54" s="5" t="s">
+      <x:c r="F54" s="6" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="H54" s="5" t="s">
+      <x:c r="H54" s="6" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="I54" s="5" t="s">
+      <x:c r="I54" s="6" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A55" s="5" t="s">
+      <x:c r="A55" s="6" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="B55" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C55" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D55" s="6" t="n">
+      <x:c r="B55" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C55" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D55" s="7" t="n">
         <x:v>44307.8754788194</x:v>
       </x:c>
-      <x:c r="E55" s="5" t="s">
+      <x:c r="E55" s="6" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="F55" s="5" t="s">
+      <x:c r="F55" s="6" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="H55" s="5" t="s">
+      <x:c r="H55" s="6" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="I55" s="5" t="s">
+      <x:c r="I55" s="6" t="s">
         <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A56" s="5" t="s">
+      <x:c r="A56" s="6" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="B56" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C56" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D56" s="6" t="n">
+      <x:c r="B56" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C56" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D56" s="7" t="n">
         <x:v>44310.6324883565</x:v>
       </x:c>
-      <x:c r="E56" s="5" t="s">
+      <x:c r="E56" s="6" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="F56" s="5" t="s">
+      <x:c r="F56" s="6" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="H56" s="5" t="s">
+      <x:c r="H56" s="6" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="I56" s="5" t="s">
+      <x:c r="I56" s="6" t="s">
         <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A57" s="5" t="s">
+      <x:c r="A57" s="6" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="B57" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C57" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D57" s="6" t="n">
+      <x:c r="B57" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C57" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D57" s="7" t="n">
         <x:v>44295.3841843403</x:v>
       </x:c>
-      <x:c r="E57" s="5" t="s">
+      <x:c r="E57" s="6" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="F57" s="5" t="s">
+      <x:c r="F57" s="6" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="H57" s="5" t="s">
+      <x:c r="H57" s="6" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="I57" s="5" t="s">
+      <x:c r="I57" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A58" s="5" t="s">
+      <x:c r="A58" s="6" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="B58" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C58" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D58" s="6" t="n">
+      <x:c r="B58" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C58" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D58" s="7" t="n">
         <x:v>44296.3996914005</x:v>
       </x:c>
-      <x:c r="E58" s="5" t="s">
+      <x:c r="E58" s="6" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="F58" s="5" t="s">
+      <x:c r="F58" s="6" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="H58" s="5" t="s">
+      <x:c r="H58" s="6" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="I58" s="5" t="s">
+      <x:c r="I58" s="6" t="s">
         <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A59" s="5" t="s">
+      <x:c r="A59" s="6" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="B59" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C59" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D59" s="6" t="n">
+      <x:c r="B59" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C59" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D59" s="7" t="n">
         <x:v>44287.7302546412</x:v>
       </x:c>
-      <x:c r="E59" s="5" t="s">
+      <x:c r="E59" s="6" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="F59" s="5" t="s">
+      <x:c r="F59" s="6" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="H59" s="5" t="s">
+      <x:c r="H59" s="6" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="I59" s="5" t="s">
+      <x:c r="I59" s="6" t="s">
         <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A60" s="5" t="s">
+      <x:c r="A60" s="6" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="B60" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C60" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D60" s="6" t="n">
+      <x:c r="B60" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C60" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D60" s="7" t="n">
         <x:v>44313.8319775926</x:v>
       </x:c>
-      <x:c r="E60" s="5" t="s">
+      <x:c r="E60" s="6" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="F60" s="5" t="s">
+      <x:c r="F60" s="6" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="H60" s="5" t="s">
+      <x:c r="H60" s="6" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="I60" s="5" t="s">
+      <x:c r="I60" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A61" s="5" t="s">
+      <x:c r="A61" s="6" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="B61" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C61" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D61" s="6" t="n">
+      <x:c r="B61" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C61" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D61" s="7" t="n">
         <x:v>44308.7493501852</x:v>
       </x:c>
-      <x:c r="E61" s="5" t="s">
+      <x:c r="E61" s="6" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="F61" s="5" t="s">
+      <x:c r="F61" s="6" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="H61" s="5" t="s">
+      <x:c r="H61" s="6" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="I61" s="5" t="s">
+      <x:c r="I61" s="6" t="s">
         <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A62" s="5" t="s">
+      <x:c r="A62" s="6" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="B62" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C62" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D62" s="6" t="n">
+      <x:c r="B62" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C62" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D62" s="7" t="n">
         <x:v>44313.5391934259</x:v>
       </x:c>
-      <x:c r="E62" s="5" t="s">
+      <x:c r="E62" s="6" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="F62" s="5" t="s">
+      <x:c r="F62" s="6" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="H62" s="5" t="s">
+      <x:c r="H62" s="6" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="I62" s="5" t="s">
+      <x:c r="I62" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A63" s="5" t="s">
+      <x:c r="A63" s="6" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="B63" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C63" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D63" s="6" t="n">
+      <x:c r="B63" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C63" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D63" s="7" t="n">
         <x:v>44287.6485318981</x:v>
       </x:c>
-      <x:c r="E63" s="5" t="s">
+      <x:c r="E63" s="6" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="F63" s="5" t="s">
+      <x:c r="F63" s="6" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="H63" s="5" t="s">
+      <x:c r="H63" s="6" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="I63" s="5" t="s">
+      <x:c r="I63" s="6" t="s">
         <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A64" s="5" t="s">
+      <x:c r="A64" s="6" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="B64" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C64" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D64" s="6" t="n">
+      <x:c r="B64" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C64" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D64" s="7" t="n">
         <x:v>44307.9174008912</x:v>
       </x:c>
-      <x:c r="E64" s="5" t="s">
+      <x:c r="E64" s="6" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="F64" s="5" t="s">
+      <x:c r="F64" s="6" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="H64" s="5" t="s">
+      <x:c r="H64" s="6" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="I64" s="5" t="s">
+      <x:c r="I64" s="6" t="s">
         <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A65" s="5" t="s">
+      <x:c r="A65" s="6" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="B65" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C65" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D65" s="6" t="n">
+      <x:c r="B65" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C65" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D65" s="7" t="n">
         <x:v>44287.7678499305</x:v>
       </x:c>
-      <x:c r="E65" s="5" t="s">
+      <x:c r="E65" s="6" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="F65" s="5" t="s">
+      <x:c r="F65" s="6" t="s">
         <x:v>242</x:v>
       </x:c>
-      <x:c r="H65" s="5" t="s">
+      <x:c r="H65" s="6" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="I65" s="5" t="s">
+      <x:c r="I65" s="6" t="s">
         <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A66" s="5" t="s">
+      <x:c r="A66" s="6" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="B66" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C66" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D66" s="6" t="n">
+      <x:c r="B66" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C66" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D66" s="7" t="n">
         <x:v>44308.5194175926</x:v>
       </x:c>
-      <x:c r="E66" s="5" t="s">
+      <x:c r="E66" s="6" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="F66" s="5" t="s">
+      <x:c r="F66" s="6" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="H66" s="5" t="s">
+      <x:c r="H66" s="6" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="I66" s="5" t="s">
+      <x:c r="I66" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A67" s="5" t="s">
+      <x:c r="A67" s="6" t="s">
         <x:v>247</x:v>
       </x:c>
-      <x:c r="B67" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C67" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D67" s="6" t="n">
+      <x:c r="B67" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C67" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D67" s="7" t="n">
         <x:v>44296.9283985417</x:v>
       </x:c>
-      <x:c r="E67" s="5" t="s">
+      <x:c r="E67" s="6" t="s">
         <x:v>247</x:v>
       </x:c>
-      <x:c r="F67" s="5" t="s">
+      <x:c r="F67" s="6" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="H67" s="5" t="s">
+      <x:c r="H67" s="6" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="I67" s="5" t="s">
+      <x:c r="I67" s="6" t="s">
         <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A68" s="5" t="s">
+      <x:c r="A68" s="6" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="B68" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C68" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D68" s="6" t="n">
+      <x:c r="B68" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C68" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D68" s="7" t="n">
         <x:v>44312.5897414352</x:v>
       </x:c>
-      <x:c r="E68" s="5" t="s">
+      <x:c r="E68" s="6" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="F68" s="5" t="s">
+      <x:c r="F68" s="6" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="H68" s="5" t="s">
+      <x:c r="H68" s="6" t="s">
         <x:v>253</x:v>
       </x:c>
-      <x:c r="I68" s="5" t="s">
+      <x:c r="I68" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A69" s="5" t="s">
+      <x:c r="A69" s="6" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="B69" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C69" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D69" s="6" t="n">
+      <x:c r="B69" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C69" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D69" s="7" t="n">
         <x:v>44293.6142784028</x:v>
       </x:c>
-      <x:c r="E69" s="5" t="s">
+      <x:c r="E69" s="6" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="F69" s="5" t="s">
+      <x:c r="F69" s="6" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="H69" s="5" t="s">
+      <x:c r="H69" s="6" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="I69" s="5" t="s">
+      <x:c r="I69" s="6" t="s">
         <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A70" s="5" t="s">
+      <x:c r="A70" s="6" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="B70" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C70" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D70" s="6" t="n">
+      <x:c r="B70" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C70" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D70" s="7" t="n">
         <x:v>44292.0295218981</x:v>
       </x:c>
-      <x:c r="E70" s="5" t="s">
+      <x:c r="E70" s="6" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="F70" s="5" t="s">
+      <x:c r="F70" s="6" t="s">
         <x:v>259</x:v>
       </x:c>
-      <x:c r="H70" s="5" t="s">
+      <x:c r="H70" s="6" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="I70" s="5" t="s">
+      <x:c r="I70" s="6" t="s">
         <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <x:c r="A71" s="5" t="s">
+      <x:c r="A71" s="6" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="B71" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C71" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D71" s="6" t="n">
+      <x:c r="B71" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C71" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D71" s="7" t="n">
         <x:v>44291.6564057292</x:v>
       </x:c>
-      <x:c r="E71" s="5" t="s">
+      <x:c r="E71" s="6" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="F71" s="5" t="s">
+      <x:c r="F71" s="8" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="H71" s="5" t="s">
+      <x:c r="H71" s="6" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="I71" s="5" t="s">
+      <x:c r="I71" s="6" t="s">
         <x:v>160</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="F71" r:id="rId10"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
